--- a/dados_nfe.xlsx
+++ b/dados_nfe.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
           <t>xMotivo</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xNome</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,6 +497,11 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>Autorizado o uso da NF-e</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CAFE RANCHEIRO AGRO INDUSTRIAL LTDA</t>
         </is>
       </c>
     </row>

--- a/dados_nfe.xlsx
+++ b/dados_nfe.xlsx
@@ -1,34 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Documents\Projeto NFCE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>fone</t>
+  </si>
+  <si>
+    <t>xNome</t>
+  </si>
+  <si>
+    <t>cEAN</t>
+  </si>
+  <si>
+    <t>xProd</t>
+  </si>
+  <si>
+    <t>NCM</t>
+  </si>
+  <si>
+    <t>CEST</t>
+  </si>
+  <si>
+    <t>CFOP</t>
+  </si>
+  <si>
+    <t>uCom</t>
+  </si>
+  <si>
+    <t>qCom</t>
+  </si>
+  <si>
+    <t>vUnCom</t>
+  </si>
+  <si>
+    <t>pPIS</t>
+  </si>
+  <si>
+    <t>pICMS</t>
+  </si>
+  <si>
+    <t>pIPI</t>
+  </si>
+  <si>
+    <t>pCOFINS</t>
+  </si>
+  <si>
+    <t>02924249000119</t>
+  </si>
+  <si>
+    <t>6240158955</t>
+  </si>
+  <si>
+    <t>CAFE RANCHEIRO AGRO INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>17896253401561</t>
+  </si>
+  <si>
+    <t>WAFER RANCHEIRO CHOCOLATE 40X78G         CEST:17.057.00</t>
+  </si>
+  <si>
+    <t>19053200</t>
+  </si>
+  <si>
+    <t>1705700</t>
+  </si>
+  <si>
+    <t>5101</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>54.0000000000</t>
+  </si>
+  <si>
+    <t>1.6500</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
+  </si>
+  <si>
+    <t>17896253401547</t>
+  </si>
+  <si>
+    <t>WAFER RANCHEIRO LIMAO 40X78G             CEST:17.057.00</t>
+  </si>
+  <si>
+    <t>77896253401396</t>
+  </si>
+  <si>
+    <t>ROSQ RECHEADA RANCHEIRO CHOCOLATE 30X90G CEST:17.053.00</t>
+  </si>
+  <si>
+    <t>19053100</t>
+  </si>
+  <si>
+    <t>1705300</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>45.0000000000</t>
+  </si>
+  <si>
+    <t>17896253401493</t>
+  </si>
+  <si>
+    <t>CREAM CRACKER RANCHEIRO 10X600G          CEST:17.053.02</t>
+  </si>
+  <si>
+    <t>1705302</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>69.0000000000</t>
+  </si>
+  <si>
+    <t>7896253400352</t>
+  </si>
+  <si>
+    <t>CAFE DO CE ALMOF 250G                    CEST:17.096.00</t>
+  </si>
+  <si>
+    <t>09012100</t>
+  </si>
+  <si>
+    <t>1709600</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>30.0000000000</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>7896253400116</t>
+  </si>
+  <si>
+    <t>CAFE PINGO DE OURO ALMOF 250G            CEST:17.096.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>32.0000000000</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +217,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,101 +519,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>cUF</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>cNF</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>natOp</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>nProt</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>dhRecbto</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>cStat</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>xMotivo</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>xNome</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>24367228</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>VENDA PRODUCAO ESTABELECIMENTO</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>152247648461030</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-06-11T19:34:08-03:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Autorizado o uso da NF-e</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>CAFE RANCHEIRO AGRO INDUSTRIAL LTDA</t>
-        </is>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
